--- a/fantacalcio.xlsx
+++ b/fantacalcio.xlsx
@@ -15,11 +15,11 @@
     <sheet name="Alfredo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Alfredo" localSheetId="0">Alfredo!$A$3:$D$5</definedName>
-    <definedName name="Francesco" localSheetId="0">Alfredo!$F$3:$I$5</definedName>
+    <definedName name="Alfredo" localSheetId="0">Alfredo!$A$3:$D$4</definedName>
+    <definedName name="Francesco" localSheetId="0">Alfredo!$F$3:$I$4</definedName>
     <definedName name="Lorenzo" localSheetId="0">Alfredo!$K$3:$N$4</definedName>
     <definedName name="Patrizio" localSheetId="0">Alfredo!$P$3:$S$4</definedName>
-    <definedName name="StefanoDezi" localSheetId="0">Alfredo!$Z$3:$AC$5</definedName>
+    <definedName name="StefanoDezi" localSheetId="0">Alfredo!$Z$3:$AC$4</definedName>
     <definedName name="StefanoDP" localSheetId="0">Alfredo!$U$3:$X$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>Ruolo</t>
   </si>
@@ -111,45 +111,9 @@
     <t>costo</t>
   </si>
   <si>
-    <t>SAS</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t>TOZZO</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>NICOLAS</t>
-  </si>
-  <si>
-    <t>UDI</t>
-  </si>
-  <si>
-    <t>GHIDOTTI</t>
-  </si>
-  <si>
-    <t>FIO</t>
-  </si>
-  <si>
-    <t>SORRENTINO</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>MERET</t>
-  </si>
-  <si>
-    <t>NAP</t>
-  </si>
-  <si>
-    <t>RAFAEL CABRAL</t>
-  </si>
-  <si>
     <t>Alfredo</t>
   </si>
   <si>
@@ -168,25 +132,16 @@
     <t>Stefano Dezi</t>
   </si>
   <si>
-    <t>CRAGNO</t>
-  </si>
-  <si>
-    <t>CAG</t>
-  </si>
-  <si>
-    <t>MARCHETTI</t>
-  </si>
-  <si>
-    <t>GEN</t>
-  </si>
-  <si>
-    <t>CONSIGLI</t>
-  </si>
-  <si>
     <t>Crediti</t>
   </si>
   <si>
     <t>Restanti</t>
+  </si>
+  <si>
+    <t>BERNI</t>
+  </si>
+  <si>
+    <t>INT</t>
   </si>
 </sst>
 </file>
@@ -265,18 +220,23 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -285,11 +245,6 @@
     <dxf>
       <font>
         <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -361,44 +316,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -413,317 +331,27 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -740,27 +368,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Francesco" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="StefanoDezi" refreshOnLoad="1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Alfredo" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="StefanoDP" refreshOnLoad="1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Patrizio" refreshOnLoad="1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Lorenzo" refreshOnLoad="1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Francesco" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Alfredo" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1026,419 +654,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" customWidth="1"/>
     <col min="11" max="11" width="6.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
     <col min="14" max="14" width="5.7109375" customWidth="1"/>
     <col min="16" max="16" width="6.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1"/>
     <col min="18" max="18" width="8.140625" customWidth="1"/>
     <col min="19" max="19" width="5.7109375" customWidth="1"/>
     <col min="21" max="21" width="6.140625" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" customWidth="1"/>
     <col min="23" max="23" width="8.140625" customWidth="1"/>
     <col min="24" max="24" width="5.7109375" customWidth="1"/>
     <col min="26" max="26" width="6.140625" customWidth="1"/>
-    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.42578125" customWidth="1"/>
     <col min="28" max="28" width="8.140625" customWidth="1"/>
     <col min="29" max="29" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="5">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4">
         <v>252</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="6">
-        <f>SUM(B1-(SUM(D4:D30)))</f>
-        <v>248</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5">
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5">
+        <f>SUM(B1-(SUM(D4:D29)))</f>
+        <v>251</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4">
         <v>265</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="6">
-        <f>SUM(G1-(SUM(I4:I30)))</f>
-        <v>260</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="5">
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5">
+        <f>SUM(G1-(SUM(I4:I29)))</f>
+        <v>265</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4">
         <v>253</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="6">
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5">
         <f>SUM(L1-(SUM(N4:N30)))</f>
+        <v>253</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>265</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="5">
+        <f>SUM(Q1-(SUM(S4:S30)))</f>
+        <v>265</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="4">
         <v>251</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>265</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="6">
-        <f>SUM(Q1-(SUM(S4:S30)))</f>
-        <v>261</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="5">
+      <c r="W1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="5">
+        <f>SUM(V1-(SUM(X4:X30)))</f>
         <v>251</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="6">
-        <f>SUM(V1-(SUM(X4:X30)))</f>
-        <v>247</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="5">
+      <c r="Z1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="4">
         <v>257</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="6">
-        <f>SUM(AA1-(SUM(AC4:AC30)))</f>
-        <v>206</v>
+      <c r="AB1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" s="5">
+        <f>SUM(AA1-(SUM(AC4:AC29)))</f>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Z2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="U2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Z2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="P4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4">
-        <v>4</v>
-      </c>
-      <c r="U4" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" t="s">
-        <v>15</v>
-      </c>
-      <c r="X4">
-        <v>4</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC4">
-        <v>6</v>
-      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC5">
-        <v>45</v>
-      </c>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="D31" s="4"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="S31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="4"/>
+    <row r="31" spans="3:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="S31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="AC31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Z2:AC2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$D$1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$D$1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$D$1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$D$1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$D$1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$D$1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F39 A4:A39 K4:K39 P4:P39 U4:U39 Z4:Z39">
-    <cfRule type="expression" dxfId="13" priority="1">
-      <formula>$F$4="A"</formula>
+  <conditionalFormatting sqref="K4:K39 P4:P39 U4:U39 F4:F38 Z4:Z38 A4:A38">
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>#REF!="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
-      <formula>$F$4="C"</formula>
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>#REF!="C"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
-      <formula>$F$4="D"</formula>
+    <cfRule type="expression" dxfId="1" priority="13">
+      <formula>#REF!="D"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
-      <formula>$F$4="P"</formula>
+    <cfRule type="expression" dxfId="0" priority="14">
+      <formula>#REF!="P"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
